--- a/model_exports/labels/2.0_False_False_3_2.xlsx
+++ b/model_exports/labels/2.0_False_False_3_2.xlsx
@@ -453,11 +453,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-729342722264420352</t>
+          <t>t-494301276121731072</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -466,7 +466,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-500035862709948417</t>
+          <t>t-675691648802795522</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -479,7 +479,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-500685725482770433</t>
+          <t>t-497139824780787712</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-501752547083059200</t>
+          <t>t-497141925451792384</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,7 +505,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-610974241895354368</t>
+          <t>t-497161697371893760</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-624374054338867201</t>
+          <t>t-497242468627124224</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,24 +531,24 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-759240736864870400</t>
+          <t>t-497474058641215489</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-760665387113472001</t>
+          <t>t-497485019451883520</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -557,20 +557,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-760674522622152704</t>
+          <t>t-511851013155090432</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-833214575512150018</t>
+          <t>t-512006361937616896</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -583,20 +583,20 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-887418286014570496</t>
+          <t>t-512017939579432960</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-497136108463865857</t>
+          <t>t-577847446270832640</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -609,7 +609,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-686267623462408192</t>
+          <t>t-610974241895354368</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -622,37 +622,37 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-756508260925075456</t>
+          <t>t-763135506188206084</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-775697386924445696</t>
+          <t>t-763744681616257025</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-848784048755531776</t>
+          <t>t-764320260182806528</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -661,20 +661,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-848852185962037248</t>
+          <t>t-1016827484665499650</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-848864915762929664</t>
+          <t>t-1016832637904695296</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -687,33 +687,33 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-848891572318072832</t>
+          <t>t-588022316359151617</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-849117747430797312</t>
+          <t>t-588515231380348928</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-849222321772658688</t>
+          <t>t-588525414441553920</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -726,7 +726,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-849255695249625088</t>
+          <t>t-588659923807907840</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -739,20 +739,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-849369868306665472</t>
+          <t>t-638852256234913792</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-849634891255951364</t>
+          <t>t-686267623462408192</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -765,7 +765,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-849637507117568000</t>
+          <t>t-826627277026791424</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -778,7 +778,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-849667565186146304</t>
+          <t>t-871116400701706241</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -791,7 +791,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-849686849312501763</t>
+          <t>t-871834189787791364</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -804,37 +804,37 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-849743357312024576</t>
+          <t>t-872075702203559936</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-850026468906340353</t>
+          <t>t-872158265681096708</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-850319148420694016</t>
+          <t>t-900539002423562240</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -843,33 +843,33 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-850426637086842884</t>
+          <t>t-900561270843334662</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-850856929295552513</t>
+          <t>t-900690069668933632</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-867771334083923968</t>
+          <t>t-985145363618246656</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -882,20 +882,20 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-875748360933847041</t>
+          <t>t-985306564868354049</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-887086137789091841</t>
+          <t>t-1003697920015851520</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -908,11 +908,11 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-893450286144131072</t>
+          <t>t-1018804138195513344</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -921,7 +921,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-924109747627929600</t>
+          <t>t-1018807229267496962</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -934,24 +934,24 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-956711426009202688</t>
+          <t>t-1018819644377923585</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-968259732858376192</t>
+          <t>t-1018962868379750402</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -960,11 +960,11 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-985145363618246656</t>
+          <t>t-1019003195874512897</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -973,11 +973,11 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-985306564868354049</t>
+          <t>t-1019014466770333697</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
@@ -986,7 +986,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-1003697920015851520</t>
+          <t>t-1019698120098222080</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -999,20 +999,20 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-1024388985282383872</t>
+          <t>t-1030587514820669441</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-513019810272137216</t>
+          <t>t-1030625730407874563</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1025,7 +1025,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-507610683022643200</t>
+          <t>t-1031145618503360513</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1038,20 +1038,20 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-694987975168495617</t>
+          <t>t-1031309689848508416</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-778024515909537792</t>
+          <t>t-1060177367417655297</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1064,50 +1064,50 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-1012224879310057472</t>
+          <t>t-1060184735106781189</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-1024774127687749633</t>
+          <t>t-1060185768549908480</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-517568253363634176</t>
+          <t>t-1060186673835900928</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-518546395729379328</t>
+          <t>t-1060281450493136896</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1116,20 +1116,20 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-519264703466315776</t>
+          <t>t-1060341719915470848</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-606774570255654912</t>
+          <t>t-1060518882832658433</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1142,11 +1142,11 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-619895281761423360</t>
+          <t>t-1060908480901640192</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1155,7 +1155,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-730338940872445952</t>
+          <t>t-548492147645640704</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1168,20 +1168,20 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-731342823132274688</t>
+          <t>t-975411428663345152</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-746432967740882945</t>
+          <t>t-925753092301295616</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1194,20 +1194,20 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-816207402437636096</t>
+          <t>t-985698935074369536</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-835997827369156608</t>
+          <t>t-591245619513163777</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1220,11 +1220,11 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-989808164907319296</t>
+          <t>t-594694315915350017</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-610241505777856512</t>
+          <t>t-608562753129840640</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1246,20 +1246,20 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-610629417715412992</t>
+          <t>t-746432967740882945</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-612750086443917313</t>
+          <t>t-753035409660186624</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1272,7 +1272,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-903265153931608064</t>
+          <t>t-765818303898058752</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1285,24 +1285,24 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-621832039763849218</t>
+          <t>t-816207402437636096</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-621845142903754752</t>
+          <t>t-924921911510949890</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
@@ -1311,7 +1311,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-710560200558653440</t>
+          <t>t-924939317381758976</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1324,11 +1324,11 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-745031440031694848</t>
+          <t>t-925210606361300992</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -1337,11 +1337,11 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-824338590389960704</t>
+          <t>t-925257914817892352</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -1350,11 +1350,11 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-903082857492566018</t>
+          <t>t-989808164907319296</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -1363,37 +1363,37 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-908760840886767616</t>
+          <t>t-1015939762513956864</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-1050075728891535361</t>
+          <t>t-1017282491193782272</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-1050076017593745408</t>
+          <t>t-757940960609173505</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -1402,24 +1402,24 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-1050077658590134272</t>
+          <t>t-903265153931608064</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-1050092626786037760</t>
+          <t>t-1006061673487138817</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -1428,11 +1428,11 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-1050210928594173952</t>
+          <t>t-619513224057061376</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -1441,24 +1441,24 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-1050446607055896576</t>
+          <t>t-621832039763849218</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-1051200746312663040</t>
+          <t>t-621845142903754752</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
@@ -1467,7 +1467,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-511616761545121792</t>
+          <t>t-773307883878363136</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1480,33 +1480,33 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-548325093256884224</t>
+          <t>t-876870634885844994</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-512768543989825541</t>
+          <t>t-876897987485630464</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-611854657594486784</t>
+          <t>t-876995236253376512</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1519,7 +1519,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-751267650043387906</t>
+          <t>t-999634090503569409</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1532,24 +1532,24 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-513123960192794624</t>
+          <t>t-1050075728891535361</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-623339394989166593</t>
+          <t>t-1050076017593745408</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-774727266823581696</t>
+          <t>t-1050077658590134272</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1571,46 +1571,46 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-781902339066191873</t>
+          <t>t-1050092626786037760</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-840253641885913088</t>
+          <t>t-1050210928594173952</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-868226298719633408</t>
+          <t>t-1050446607055896576</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-878362748232622081</t>
+          <t>t-1051200746312663040</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1623,7 +1623,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-978735824383590400</t>
+          <t>t-611854657594486784</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1636,24 +1636,24 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-1005217349610426371</t>
+          <t>t-751267650043387906</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-533211918698553344</t>
+          <t>t-585851418843615232</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -1662,7 +1662,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-533272996883210240</t>
+          <t>t-623339394989166593</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1675,11 +1675,11 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-533345881412878336</t>
+          <t>t-781902339066191873</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -1688,7 +1688,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-672497431242756096</t>
+          <t>t-868226298719633408</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1701,33 +1701,33 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-681802042885697536</t>
+          <t>t-927521858815131648</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-682128192019234816</t>
+          <t>t-1000477141224558594</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-682147581405859841</t>
+          <t>t-1005217349610426371</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1740,7 +1740,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-682223092198936576</t>
+          <t>t-524878421172953088</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1753,7 +1753,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-682287065824931840</t>
+          <t>t-540815358715002880</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1766,7 +1766,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-682459381347254272</t>
+          <t>t-818386811332558848</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1779,20 +1779,20 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-682632199527641089</t>
+          <t>t-818898970961473536</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-682755737790099456</t>
+          <t>t-948484381987037185</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1805,11 +1805,11 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-682908634020470785</t>
+          <t>t-948486603227451392</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-682915879026339840</t>
+          <t>t-948505461745168384</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1831,20 +1831,20 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-683017640638582784</t>
+          <t>t-948538940134477824</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-683036658942513152</t>
+          <t>t-948573984802689025</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1857,7 +1857,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-683077568287866880</t>
+          <t>t-665687399033397248</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1870,20 +1870,20 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-683235960692314112</t>
+          <t>t-682141165802631168</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-683258563628777472</t>
+          <t>t-923100909521068032</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1896,11 +1896,11 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-683386799184543745</t>
+          <t>t-542093659286429696</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -1909,11 +1909,11 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-683399457254326272</t>
+          <t>t-552038248218767360</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
         <v>1</v>
@@ -1922,89 +1922,89 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-683602691965206528</t>
+          <t>t-552266751304798209</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-683628764622905344</t>
+          <t>t-671527403521462276</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-683644184683753472</t>
+          <t>t-782023965489238017</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-683649428587155456</t>
+          <t>t-758769139905204224</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-683773064040050688</t>
+          <t>t-560903834407817217</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-683968472968228864</t>
+          <t>t-568623295811194880</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-683979793273065473</t>
+          <t>t-611996097129619456</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -2013,24 +2013,24 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-684007082555748352</t>
+          <t>t-985892254756884480</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-684323489562558465</t>
+          <t>t-987722164903251968</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -2039,7 +2039,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-685408547975331840</t>
+          <t>t-575206069833629696</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -2052,11 +2052,11 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-950852460532428800</t>
+          <t>t-611182304984109057</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
         <v>1</v>
@@ -2065,33 +2065,33 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-986144781721104384</t>
+          <t>t-736136204106616832</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-536361968840769536</t>
+          <t>t-578289267857891328</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-675047436134543360</t>
+          <t>t-590950091256631296</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -2104,20 +2104,20 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-887680971797131264</t>
+          <t>t-1060963338337902593</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-887683274591662080</t>
+          <t>t-907490044335636480</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -2130,20 +2130,20 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-887690953800253442</t>
+          <t>t-612099863975583744</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-887715764404449281</t>
+          <t>t-612781430335082496</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -2156,7 +2156,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-887751540173414404</t>
+          <t>t-612783809587580928</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -2169,37 +2169,37 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-887923666507489280</t>
+          <t>t-621245283935121408</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-887928668626055169</t>
+          <t>t-733769545261944833</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-887976731767918592</t>
+          <t>t-878162982953402368</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -2208,20 +2208,20 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-888083621801844737</t>
+          <t>t-891497407179104257</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-926892709188702208</t>
+          <t>t-756982430985166848</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -2234,20 +2234,20 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-540871484869472256</t>
+          <t>t-756983738035077120</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-671527403521462276</t>
+          <t>t-757172169029804034</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -2260,20 +2260,20 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-546995440701296643</t>
+          <t>t-1036699556560470016</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-560163999057448960</t>
+          <t>t-624561158788247552</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -2286,20 +2286,20 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-1044757925414273025</t>
+          <t>t-715573202714562561</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-1044770473932816384</t>
+          <t>t-806138760937271296</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -2312,20 +2312,20 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-611996097129619456</t>
+          <t>t-859838431719030785</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-624161549528096768</t>
+          <t>t-994221853211267073</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -2338,50 +2338,50 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-912821640328773633</t>
+          <t>t-649543845269667840</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-961384199684001793</t>
+          <t>t-781685141211058176</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-985892254756884480</t>
+          <t>t-889517070559334400</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-1014543719205400576</t>
+          <t>t-992428512744222721</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -2390,7 +2390,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-1014578901966876672</t>
+          <t>t-924790802882146304</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -2403,46 +2403,46 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-578289267857891328</t>
+          <t>t-985241133159796736</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-590950091256631296</t>
+          <t>t-997483790145589248</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-1060963338337902593</t>
+          <t>t-997521947297710081</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-594613009575579649</t>
+          <t>t-635524506925314049</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -2455,7 +2455,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-696837842702446592</t>
+          <t>t-682987194840150016</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -2468,7 +2468,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-907490044335636480</t>
+          <t>t-752596726066843648</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2481,20 +2481,20 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-1031211148908081152</t>
+          <t>t-753413745230094338</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-618586257753374720</t>
+          <t>t-764530848079155200</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2507,7 +2507,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-733769545261944833</t>
+          <t>t-764927216257949696</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2520,24 +2520,24 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-826760200636002305</t>
+          <t>t-794700824404430848</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-849724022598139904</t>
+          <t>t-900495545885757441</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -2546,24 +2546,24 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-961914631135617025</t>
+          <t>t-900708018983227393</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-972059634101047296</t>
+          <t>t-911712205657317376</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
         <v>1</v>
@@ -2572,46 +2572,46 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-973190028435353600</t>
+          <t>t-952979792495816704</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-828748393916809216</t>
+          <t>t-965598107676430336</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-829760036348035072</t>
+          <t>t-1014570924681687042</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-806138760937271296</t>
+          <t>t-1016477854391992320</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2624,24 +2624,24 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-809566350368796673</t>
+          <t>t-1050012662120235008</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-860938986382135296</t>
+          <t>t-891394338445553666</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170" t="n">
         <v>1</v>
@@ -2650,33 +2650,33 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-861076485599354880</t>
+          <t>t-891401235391066112</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>1</v>
       </c>
       <c r="C171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-994221853211267073</t>
+          <t>t-891671460804259840</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-1003953189820010496</t>
+          <t>t-891695041609162754</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2689,7 +2689,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-694715871097278464</t>
+          <t>t-892069950281711617</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2702,11 +2702,11 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-890798435175063552</t>
+          <t>t-892901315642146816</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175" t="n">
         <v>1</v>
@@ -2715,11 +2715,11 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-1022049211108483072</t>
+          <t>t-1006674770983817217</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" t="n">
         <v>1</v>
@@ -2728,11 +2728,11 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-1022100736476360704</t>
+          <t>t-1030896472881917952</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
         <v>1</v>
@@ -2741,20 +2741,20 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-734825704412446721</t>
+          <t>t-1054153981998575616</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-734826990281187328</t>
+          <t>t-673774894543470592</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2767,33 +2767,33 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-875514382276538369</t>
+          <t>t-673911765848035328</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-977485288892059648</t>
+          <t>t-903370281829498882</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-860527262709493760</t>
+          <t>t-580289963599765504</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2806,7 +2806,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-992428512744222721</t>
+          <t>t-586160130313625600</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2819,7 +2819,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-1054403005032947712</t>
+          <t>t-594878604397432832</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2832,7 +2832,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-898040952396193792</t>
+          <t>t-609714781507993601</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2845,37 +2845,37 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-898113774225301505</t>
+          <t>t-609790992309469184</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-1031076096287105024</t>
+          <t>t-609807635727151104</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>1</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-599936713796886528</t>
+          <t>t-610006959677382657</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C188" t="n">
         <v>1</v>
@@ -2884,24 +2884,24 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-604384366886834177</t>
+          <t>t-610466198136954881</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-604797500965265408</t>
+          <t>t-616575922674769920</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" t="n">
         <v>1</v>
@@ -2910,85 +2910,85 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-605112787141033985</t>
+          <t>t-616694572853256192</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-605369768720396288</t>
+          <t>t-651743798721122304</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-640924573647503360</t>
+          <t>t-660890514741399552</t>
         </is>
       </c>
       <c r="B193" t="n">
         <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-641489320088436736</t>
+          <t>t-661115206525915136</t>
         </is>
       </c>
       <c r="B194" t="n">
         <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-660036667412082688</t>
+          <t>t-661147212135727104</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-660641499701489665</t>
+          <t>t-661201099085377537</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>1</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-715206020902084609</t>
+          <t>t-726061174727532544</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -3001,11 +3001,11 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-715208550243557376</t>
+          <t>t-755726869270523904</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" t="n">
         <v>1</v>
@@ -3014,11 +3014,11 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-715210823002562560</t>
+          <t>t-799654742746165248</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -3027,7 +3027,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-715215011178803200</t>
+          <t>t-802968858214760448</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -3040,7 +3040,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-735525963610660865</t>
+          <t>t-802970857136123904</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -3053,20 +3053,20 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-736203598091190272</t>
+          <t>t-802986234171768832</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-737800453916897280</t>
+          <t>t-802996470555279360</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -3079,11 +3079,11 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-780146894357929984</t>
+          <t>t-803023904860151808</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C204" t="n">
         <v>1</v>
@@ -3092,11 +3092,11 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-785997107094093825</t>
+          <t>t-803063479473176576</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C205" t="n">
         <v>1</v>
@@ -3105,33 +3105,33 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-821459572263100416</t>
+          <t>t-803165461336555521</t>
         </is>
       </c>
       <c r="B206" t="n">
         <v>1</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-870028367990599681</t>
+          <t>t-803184972723081216</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-894616667350872064</t>
+          <t>t-803191488880513024</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -3144,7 +3144,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-895668017060651009</t>
+          <t>t-803213114628014080</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -3157,7 +3157,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-898515685369946113</t>
+          <t>t-803415757417758721</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -3170,33 +3170,33 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-925358435398488064</t>
+          <t>t-804486553280069633</t>
         </is>
       </c>
       <c r="B211" t="n">
         <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-1016477854391992320</t>
+          <t>t-810931684396896256</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-1047282657053298690</t>
+          <t>t-811056347773026304</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -3209,59 +3209,59 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-626642400555892737</t>
+          <t>t-811268248448724993</t>
         </is>
       </c>
       <c r="B214" t="n">
         <v>1</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-626741309693394948</t>
+          <t>t-903533073358352385</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-626870204199534598</t>
+          <t>t-903589529143189504</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-643122505524322304</t>
+          <t>t-953220290657492992</t>
         </is>
       </c>
       <c r="B217" t="n">
         <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-756927547049320448</t>
+          <t>t-1003317489990848512</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -3274,7 +3274,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-886785151694512128</t>
+          <t>t-1003350897521459202</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -3287,20 +3287,20 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-886797636501520384</t>
+          <t>t-1003359993201025024</t>
         </is>
       </c>
       <c r="B220" t="n">
         <v>1</v>
       </c>
       <c r="C220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-886952472035549185</t>
+          <t>t-1003379549600731139</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -3313,37 +3313,37 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-887152237432061952</t>
+          <t>t-1037619174145712128</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-887308832208293888</t>
+          <t>t-1052331593933688832</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-888147986982649856</t>
+          <t>t-1052814538419003392</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -3352,33 +3352,33 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-1004794708802048002</t>
+          <t>t-1052930779947393024</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-1006674770983817217</t>
+          <t>t-1052972300667146241</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-796087988140834817</t>
+          <t>t-1053005694822207488</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -3391,7 +3391,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-1050781684117987329</t>
+          <t>t-1053014697077817346</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -3404,24 +3404,24 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-577773253898477568</t>
+          <t>t-1053091674438725632</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-577808831918579712</t>
+          <t>t-1053211878921568256</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -3430,7 +3430,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-609714781507993601</t>
+          <t>t-1053220103070932992</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -3443,7 +3443,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-609790992309469184</t>
+          <t>t-1053451825607774209</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -3456,20 +3456,20 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-609807635727151104</t>
+          <t>t-1053915265375834112</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-610006959677382657</t>
+          <t>t-685265326112559104</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -3482,7 +3482,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-610466198136954881</t>
+          <t>t-646786233809539072</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -3495,11 +3495,11 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-647384012202356736</t>
+          <t>t-833086724096028673</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C236" t="n">
         <v>1</v>
@@ -3508,7 +3508,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-648159002224914436</t>
+          <t>t-702894496737071105</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -3521,7 +3521,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-648232794137718784</t>
+          <t>t-821117207245713408</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -3534,20 +3534,20 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-648426685910618112</t>
+          <t>t-951353773321945088</t>
         </is>
       </c>
       <c r="B239" t="n">
         <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-651743798721122304</t>
+          <t>t-951370648210767877</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -3560,37 +3560,37 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-681483416165048320</t>
+          <t>t-560425264807944193</t>
         </is>
       </c>
       <c r="B241" t="n">
         <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-708952691926548480</t>
+          <t>t-578199507671904256</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-799654742746165248</t>
+          <t>t-578943021716250624</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C243" t="n">
         <v>1</v>
@@ -3599,98 +3599,98 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-1041944531015483392</t>
+          <t>t-755764875155083264</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-1042049144620285953</t>
+          <t>t-811342708061024256</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-859608993752379392</t>
+          <t>t-573120640175112192</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-769170271928483840</t>
+          <t>t-636560790015877120</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-951353773321945088</t>
+          <t>t-636561226298970112</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-951370648210767877</t>
+          <t>t-636561581355204609</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-563347902408695811</t>
+          <t>t-636600809573220352</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-649689751415599105</t>
+          <t>t-636742652692688896</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -3703,33 +3703,33 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-933464546110529538</t>
+          <t>t-698124151282864129</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-573120640175112192</t>
+          <t>t-698267386730975232</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-610512692353310721</t>
+          <t>t-698288943490535428</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -3742,20 +3742,20 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-610555659969409025</t>
+          <t>t-698457478183301120</t>
         </is>
       </c>
       <c r="B255" t="n">
         <v>1</v>
       </c>
       <c r="C255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-722677158112587776</t>
+          <t>t-698469723680464897</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -3768,7 +3768,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-736272987683426305</t>
+          <t>t-698599200850898944</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3781,7 +3781,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-778893752471543808</t>
+          <t>t-698812315353903104</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -3794,11 +3794,11 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-778933660334559232</t>
+          <t>t-573292412430376960</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C259" t="n">
         <v>1</v>
@@ -3807,7 +3807,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-788874378666737664</t>
+          <t>t-854766668387684352</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3820,7 +3820,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-854766668387684352</t>
+          <t>t-855160087563907072</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3833,7 +3833,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-855160087563907072</t>
+          <t>t-855212425251086337</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3846,7 +3846,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-855212425251086337</t>
+          <t>t-891969624929075201</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -3859,53 +3859,53 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-880769643060842496</t>
+          <t>t-892105609071349760</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-913738686994501632</t>
+          <t>t-892129259686428672</t>
         </is>
       </c>
       <c r="B265" t="n">
         <v>1</v>
       </c>
       <c r="C265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-913756608974540800</t>
+          <t>t-992126872036233224</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-913812012400087040</t>
+          <t>t-993085432052273153</t>
         </is>
       </c>
       <c r="B267" t="n">
         <v>1</v>
       </c>
       <c r="C267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -3924,7 +3924,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-645024639639535616</t>
+          <t>t-578003881596215296</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -3937,7 +3937,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-659011315088781312</t>
+          <t>t-637980934705422337</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3950,11 +3950,11 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-659473740955189248</t>
+          <t>t-900702851202207746</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C271" t="n">
         <v>1</v>
@@ -3963,59 +3963,59 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-783130241195585536</t>
+          <t>t-924289234399322112</t>
         </is>
       </c>
       <c r="B272" t="n">
         <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-783135151601704960</t>
+          <t>t-1042410099652919297</t>
         </is>
       </c>
       <c r="B273" t="n">
         <v>0</v>
       </c>
       <c r="C273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-850359691771293697</t>
+          <t>t-572732322178572288</t>
         </is>
       </c>
       <c r="B274" t="n">
         <v>1</v>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-1042410099652919297</t>
+          <t>t-572748274618277888</t>
         </is>
       </c>
       <c r="B275" t="n">
         <v>0</v>
       </c>
       <c r="C275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-572732322178572288</t>
+          <t>t-572762505111580673</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -4028,7 +4028,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-572748274618277888</t>
+          <t>t-573486943880638464</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -4041,59 +4041,59 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-572762505111580673</t>
+          <t>t-925720058432811008</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-573486943880638464</t>
+          <t>t-573279947445420034</t>
         </is>
       </c>
       <c r="B279" t="n">
         <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-572808490965733378</t>
+          <t>t-599363330575364096</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-599363330575364096</t>
+          <t>t-887004122628710405</t>
         </is>
       </c>
       <c r="B281" t="n">
         <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-686862688752807937</t>
+          <t>t-887017424306008065</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -4106,7 +4106,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-893133071528202241</t>
+          <t>t-960911174505238534</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -4119,20 +4119,20 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-1033036271491461120</t>
+          <t>t-1027967787312939008</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-1047526401644138497</t>
+          <t>t-1002347419114311681</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -4145,20 +4145,20 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-822759706078969856</t>
+          <t>t-1042391419745435648</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-822817083591446532</t>
+          <t>t-599007393494605824</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -4171,7 +4171,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-599007393494605824</t>
+          <t>t-599125027116568576</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -4184,7 +4184,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-599125027116568576</t>
+          <t>t-603639937368469504</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -4197,50 +4197,50 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-601384798897115138</t>
+          <t>t-604106567907057664</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-851578277311373312</t>
+          <t>t-605045307844337664</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-860258475883937792</t>
+          <t>t-848618580681912320</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-872233585960337408</t>
+          <t>t-848657153367953411</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C293" t="n">
         <v>1</v>
@@ -4249,27 +4249,27 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-1041460734738063360</t>
+          <t>t-848877245439594496</t>
         </is>
       </c>
       <c r="B294" t="n">
         <v>1</v>
       </c>
       <c r="C294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-1041507023660081152</t>
+          <t>t-878774409280016384</t>
         </is>
       </c>
       <c r="B295" t="n">
         <v>0</v>
       </c>
       <c r="C295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -4288,11 +4288,11 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-1049725086469685248</t>
+          <t>t-607899372177747968</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C297" t="n">
         <v>1</v>
@@ -4301,7 +4301,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-671722697408290816</t>
+          <t>t-914224756555055104</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -4314,7 +4314,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-983744396364480512</t>
+          <t>t-771587937746071552</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -4327,7 +4327,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-653702331221999616</t>
+          <t>t-1055172080499515392</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -4340,7 +4340,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-659172274482733056</t>
+          <t>t-1055204302220943368</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -4353,20 +4353,20 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-659184469690175488</t>
+          <t>t-676228752599314434</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-667433104118833152</t>
+          <t>t-676234421217845248</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -4379,7 +4379,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-753352623630278664</t>
+          <t>t-676358315065016322</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -4392,37 +4392,37 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-863149830931185664</t>
+          <t>t-651424335614353409</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-976481160363692032</t>
+          <t>t-651596952564572160</t>
         </is>
       </c>
       <c r="B306" t="n">
         <v>0</v>
       </c>
       <c r="C306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-685125009120038913</t>
+          <t>t-659172274482733056</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C307" t="n">
         <v>1</v>
@@ -4431,11 +4431,11 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-848401927432019970</t>
+          <t>t-659184469690175488</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C308" t="n">
         <v>1</v>
@@ -4444,20 +4444,20 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-716262349536149504</t>
+          <t>t-803234433000148994</t>
         </is>
       </c>
       <c r="B309" t="n">
         <v>1</v>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-720246081364365312</t>
+          <t>t-803236909183107073</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -4470,7 +4470,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-720295493985677312</t>
+          <t>t-803260822801649664</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -4483,7 +4483,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-733752725972746240</t>
+          <t>t-803260889940062209</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -4496,7 +4496,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-733764949433012224</t>
+          <t>t-803271446357282816</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -4509,46 +4509,46 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-738154348752953345</t>
+          <t>t-667518003613818880</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-738363319199928321</t>
+          <t>t-753352623630278664</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-738396040357761024</t>
+          <t>t-715587588204015616</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-738456086156443648</t>
+          <t>t-922944953696899072</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -4561,7 +4561,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-738474348290277376</t>
+          <t>t-922950403255341056</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -4574,63 +4574,63 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-1016527492478328832</t>
+          <t>t-922959565792083968</t>
         </is>
       </c>
       <c r="B319" t="n">
         <v>1</v>
       </c>
       <c r="C319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-751197637794230272</t>
+          <t>t-867110157813075968</t>
         </is>
       </c>
       <c r="B320" t="n">
         <v>1</v>
       </c>
       <c r="C320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-1025467650649014283</t>
+          <t>t-867380655289761792</t>
         </is>
       </c>
       <c r="B321" t="n">
         <v>1</v>
       </c>
       <c r="C321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-1025523844994412544</t>
+          <t>t-867711994765471750</t>
         </is>
       </c>
       <c r="B322" t="n">
         <v>1</v>
       </c>
       <c r="C322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-1025538626191380480</t>
+          <t>t-867724212827545601</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C323" t="n">
         <v>1</v>
@@ -4639,50 +4639,50 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-1026286692037222401</t>
+          <t>t-868084138674454528</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-1026301775203037184</t>
+          <t>t-868161755167547394</t>
         </is>
       </c>
       <c r="B325" t="n">
         <v>1</v>
       </c>
       <c r="C325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-1026820332710252544</t>
+          <t>t-868563701057679360</t>
         </is>
       </c>
       <c r="B326" t="n">
         <v>1</v>
       </c>
       <c r="C326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-1027725663703363584</t>
+          <t>t-869251443236249600</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C327" t="n">
         <v>1</v>
@@ -4691,24 +4691,24 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-756636337130774528</t>
+          <t>t-869321042807988224</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-946020250805514240</t>
+          <t>t-869576732906532865</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C329" t="n">
         <v>1</v>
@@ -4717,33 +4717,33 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-764984507686490112</t>
+          <t>t-1001848606427697153</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-772460103026868224</t>
+          <t>t-679420394223345665</t>
         </is>
       </c>
       <c r="B331" t="n">
         <v>1</v>
       </c>
       <c r="C331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-998557475266859013</t>
+          <t>t-685125009120038913</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -4756,24 +4756,24 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-999117713749495808</t>
+          <t>t-981289690258071552</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-768829814824247296</t>
+          <t>t-853267425386803200</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C334" t="n">
         <v>1</v>
@@ -4782,20 +4782,20 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-768861970195881986</t>
+          <t>t-910172109506273280</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-768886684955975680</t>
+          <t>t-733752725972746240</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -4808,7 +4808,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-769194684576960513</t>
+          <t>t-733764949433012224</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -4821,20 +4821,20 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-1042371802121596928</t>
+          <t>t-738154348752953345</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-1049947970664304640</t>
+          <t>t-738363319199928321</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -4847,11 +4847,11 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-855194797681897472</t>
+          <t>t-738396040357761024</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C340" t="n">
         <v>1</v>
@@ -4860,72 +4860,72 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-855248575567147008</t>
+          <t>t-738456086156443648</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-850386711385260034</t>
+          <t>t-738474348290277376</t>
         </is>
       </c>
       <c r="B342" t="n">
         <v>1</v>
       </c>
       <c r="C342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-1047617270736936962</t>
+          <t>t-761251305100902400</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-907371676148670465</t>
+          <t>t-911704954636824576</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-913905079392047105</t>
+          <t>t-946020250805514240</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-999404160775872512</t>
+          <t>t-996559091932770305</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -4938,24 +4938,24 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-542806015075713026</t>
+          <t>t-895778141523894272</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-954911597251657728</t>
+          <t>t-904025443510214656</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C348" t="n">
         <v>1</v>
@@ -4964,7 +4964,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-520694218625675264</t>
+          <t>t-904025763938217984</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -4977,37 +4977,37 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-1027253242261069824</t>
+          <t>t-904026823356506112</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-1048603963069779968</t>
+          <t>t-779013669589884928</t>
         </is>
       </c>
       <c r="B351" t="n">
         <v>0</v>
       </c>
       <c r="C351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-650288114116730880</t>
+          <t>t-788788619779665920</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C352" t="n">
         <v>1</v>
@@ -5016,7 +5016,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-661802861446209536</t>
+          <t>t-797647100565716992</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -5029,33 +5029,33 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-773146400129441792</t>
+          <t>t-797655572573143040</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-953177789628407808</t>
+          <t>t-797814805772046336</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-953520796361744384</t>
+          <t>t-812266777711431682</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -5068,11 +5068,11 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-782797044729741312</t>
+          <t>t-850470638624133120</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C357" t="n">
         <v>1</v>
@@ -5081,20 +5081,20 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-1057306605287550976</t>
+          <t>t-857651953928744960</t>
         </is>
       </c>
       <c r="B358" t="n">
         <v>0</v>
       </c>
       <c r="C358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-1057548272053698560</t>
+          <t>t-939854628749004801</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -5107,37 +5107,37 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-522926675542421504</t>
+          <t>t-841401006797815808</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-737154199411122176</t>
+          <t>t-860847907427233792</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-529737265317421056</t>
+          <t>t-884885746984681473</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C362" t="n">
         <v>0</v>
@@ -5146,37 +5146,37 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-644488507239628800</t>
+          <t>t-884938114657128448</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-644488513442983937</t>
+          <t>t-891439389787774978</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-530728667891380225</t>
+          <t>t-891452469061996544</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C365" t="n">
         <v>1</v>
@@ -5185,24 +5185,24 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-676099835372654592</t>
+          <t>t-880054371417018369</t>
         </is>
       </c>
       <c r="B366" t="n">
         <v>0</v>
       </c>
       <c r="C366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-960182659325493248</t>
+          <t>t-907371676148670465</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C367" t="n">
         <v>0</v>
@@ -5211,11 +5211,11 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-984048304144166912</t>
+          <t>t-913905079392047105</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C368" t="n">
         <v>0</v>
@@ -5224,20 +5224,20 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-984354039067529216</t>
+          <t>t-961482044650930177</t>
         </is>
       </c>
       <c r="B369" t="n">
         <v>1</v>
       </c>
       <c r="C369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-1051891605035241474</t>
+          <t>t-974764041968132096</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -5250,37 +5250,37 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-576412478135005185</t>
+          <t>t-974840717116956673</t>
         </is>
       </c>
       <c r="B371" t="n">
         <v>0</v>
       </c>
       <c r="C371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-577791187240787968</t>
+          <t>t-999404160775872512</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-578574154607280128</t>
+          <t>t-1041752836835614720</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C373" t="n">
         <v>0</v>
@@ -5289,7 +5289,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-608655874496692224</t>
+          <t>t-588767869539733506</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -5302,46 +5302,46 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-609338660572536832</t>
+          <t>t-702986489890775040</t>
         </is>
       </c>
       <c r="B375" t="n">
         <v>0</v>
       </c>
       <c r="C375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-609783303168782337</t>
+          <t>t-703410728628305920</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-610483675487203328</t>
+          <t>t-850388688303529986</t>
         </is>
       </c>
       <c r="B377" t="n">
         <v>0</v>
       </c>
       <c r="C377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-634983488203177984</t>
+          <t>t-850540226590253057</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -5354,7 +5354,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-642582982285504512</t>
+          <t>t-859937675339497473</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -5367,33 +5367,33 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-653264904581984256</t>
+          <t>t-912723744195596289</t>
         </is>
       </c>
       <c r="B380" t="n">
         <v>0</v>
       </c>
       <c r="C380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-653992755027386368</t>
+          <t>t-927695512287043584</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-737049601983840256</t>
+          <t>t-952288702339997696</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -5406,7 +5406,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-737149037674147840</t>
+          <t>t-952549733930885120</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -5419,11 +5419,11 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-737191991822409729</t>
+          <t>t-952956945098473472</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C384" t="n">
         <v>0</v>
@@ -5432,11 +5432,11 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-737354227509518336</t>
+          <t>t-1022200671666401281</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C385" t="n">
         <v>0</v>
@@ -5445,11 +5445,11 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-737535367486676992</t>
+          <t>t-519370037812277248</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C386" t="n">
         <v>1</v>
@@ -5458,7 +5458,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-737536409473421313</t>
+          <t>t-520694218625675264</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -5471,20 +5471,20 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-737576761286787074</t>
+          <t>t-1048603963069779968</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-737578269373960195</t>
+          <t>t-804010972331524096</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -5497,11 +5497,11 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-737714265268834304</t>
+          <t>t-927168021512126464</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C390" t="n">
         <v>0</v>
@@ -5510,20 +5510,20 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-737924468329328640</t>
+          <t>t-984081755006259201</t>
         </is>
       </c>
       <c r="B391" t="n">
         <v>1</v>
       </c>
       <c r="C391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-737947084494622720</t>
+          <t>t-1006187748338864128</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -5536,33 +5536,33 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-738026122630332416</t>
+          <t>t-1006198330727247872</t>
         </is>
       </c>
       <c r="B393" t="n">
         <v>1</v>
       </c>
       <c r="C393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-738039322344075265</t>
+          <t>t-1006207380676280320</t>
         </is>
       </c>
       <c r="B394" t="n">
         <v>1</v>
       </c>
       <c r="C394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-738045153693335552</t>
+          <t>t-1006582449827209216</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -5575,20 +5575,20 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-738399731303514112</t>
+          <t>t-676836902981513216</t>
         </is>
       </c>
       <c r="B396" t="n">
         <v>0</v>
       </c>
       <c r="C396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-738417134443859970</t>
+          <t>t-520483074711486464</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -5601,11 +5601,11 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-738432094909698048</t>
+          <t>t-520499948983304192</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C398" t="n">
         <v>1</v>
@@ -5614,11 +5614,11 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-738465959694860289</t>
+          <t>t-520513908759859200</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C399" t="n">
         <v>0</v>
@@ -5627,85 +5627,85 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-738495271307513856</t>
+          <t>t-642554131211755524</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-738626782371426304</t>
+          <t>t-644488507239628800</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-738645010103603200</t>
+          <t>t-644488513442983937</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-738707246943719426</t>
+          <t>t-782797451639914497</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-738992446231719937</t>
+          <t>t-580349296182198273</t>
         </is>
       </c>
       <c r="B404" t="n">
         <v>0</v>
       </c>
       <c r="C404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-739020531689721856</t>
+          <t>t-627009098568073216</t>
         </is>
       </c>
       <c r="B405" t="n">
         <v>0</v>
       </c>
       <c r="C405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-739105047078948864</t>
+          <t>t-534007858804056066</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -5718,50 +5718,50 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-739154724495228928</t>
+          <t>t-984048304144166912</t>
         </is>
       </c>
       <c r="B407" t="n">
         <v>1</v>
       </c>
       <c r="C407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-739161314166214656</t>
+          <t>t-984354039067529216</t>
         </is>
       </c>
       <c r="B408" t="n">
         <v>1</v>
       </c>
       <c r="C408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-739753236761055232</t>
+          <t>t-1027585082050207745</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-739763139001094144</t>
+          <t>t-608655874496692224</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C410" t="n">
         <v>0</v>
@@ -5770,24 +5770,24 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-739766081125011456</t>
+          <t>t-609338660572536832</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-739840205935546368</t>
+          <t>t-609783303168782337</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C412" t="n">
         <v>0</v>
@@ -5796,11 +5796,11 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-739892598974861314</t>
+          <t>t-610483675487203328</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C413" t="n">
         <v>1</v>
@@ -5809,11 +5809,11 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-740068412177715200</t>
+          <t>t-737049601983840256</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C414" t="n">
         <v>1</v>
@@ -5822,11 +5822,11 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-740070843053662208</t>
+          <t>t-737149037674147840</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C415" t="n">
         <v>1</v>
@@ -5835,7 +5835,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-740092206627880960</t>
+          <t>t-737191991822409729</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -5848,37 +5848,37 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-740465124390080515</t>
+          <t>t-737354227509518336</t>
         </is>
       </c>
       <c r="B417" t="n">
         <v>1</v>
       </c>
       <c r="C417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-740535202582253568</t>
+          <t>t-737535367486676992</t>
         </is>
       </c>
       <c r="B418" t="n">
         <v>1</v>
       </c>
       <c r="C418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-740538191267106816</t>
+          <t>t-737536409473421313</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C419" t="n">
         <v>1</v>
@@ -5887,24 +5887,24 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-741179165198536704</t>
+          <t>t-737576761286787074</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-744549085244334080</t>
+          <t>t-737578269373960195</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C421" t="n">
         <v>0</v>
@@ -5913,11 +5913,11 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-744630770116005888</t>
+          <t>t-737714265268834304</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C422" t="n">
         <v>0</v>
@@ -5926,11 +5926,11 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-745023417267724289</t>
+          <t>t-737924468329328640</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C423" t="n">
         <v>0</v>
@@ -5939,7 +5939,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-745961763473080321</t>
+          <t>t-737947084494622720</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -5952,11 +5952,11 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-746461142604668928</t>
+          <t>t-738026122630332416</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C425" t="n">
         <v>1</v>
@@ -5965,7 +5965,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-842006165705875457</t>
+          <t>t-738039322344075265</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -5978,76 +5978,76 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-914844848359985152</t>
+          <t>t-738045153693335552</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-915131811310714880</t>
+          <t>t-738399731303514112</t>
         </is>
       </c>
       <c r="B428" t="n">
         <v>0</v>
       </c>
       <c r="C428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-915495031691235329</t>
+          <t>t-738417134443859970</t>
         </is>
       </c>
       <c r="B429" t="n">
         <v>1</v>
       </c>
       <c r="C429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-915561177966505984</t>
+          <t>t-738432094909698048</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-954338199610019841</t>
+          <t>t-738465959694860289</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-954407598069084160</t>
+          <t>t-738495271307513856</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C432" t="n">
         <v>0</v>
@@ -6056,20 +6056,20 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-954798702530412546</t>
+          <t>t-738626782371426304</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-955111272852414464</t>
+          <t>t-738645010103603200</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -6082,20 +6082,20 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-955374632034594816</t>
+          <t>t-738707246943719426</t>
         </is>
       </c>
       <c r="B435" t="n">
         <v>1</v>
       </c>
       <c r="C435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-955380505121259520</t>
+          <t>t-738992446231719937</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -6108,11 +6108,11 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-955409675251482624</t>
+          <t>t-739020531689721856</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C437" t="n">
         <v>1</v>
@@ -6121,37 +6121,37 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-955739643634421760</t>
+          <t>t-739105047078948864</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-955742558189162496</t>
+          <t>t-739154724495228928</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-955766281730445313</t>
+          <t>t-739161314166214656</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C440" t="n">
         <v>1</v>
@@ -6160,7 +6160,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-955807241533304833</t>
+          <t>t-739753236761055232</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -6173,11 +6173,11 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-956101750120857601</t>
+          <t>t-739763139001094144</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C442" t="n">
         <v>0</v>
@@ -6186,76 +6186,76 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-956220929067151360</t>
+          <t>t-739766081125011456</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-956413340225589248</t>
+          <t>t-739840205935546368</t>
         </is>
       </c>
       <c r="B444" t="n">
         <v>1</v>
       </c>
       <c r="C444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-956438932681523200</t>
+          <t>t-739892598974861314</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-956447631714279424</t>
+          <t>t-740068412177715200</t>
         </is>
       </c>
       <c r="B446" t="n">
         <v>0</v>
       </c>
       <c r="C446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-956464588559671297</t>
+          <t>t-740070843053662208</t>
         </is>
       </c>
       <c r="B447" t="n">
         <v>0</v>
       </c>
       <c r="C447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-956513066228834304</t>
+          <t>t-740092206627880960</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C448" t="n">
         <v>1</v>
@@ -6264,11 +6264,11 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-1048194085624995840</t>
+          <t>t-740465124390080515</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C449" t="n">
         <v>0</v>
@@ -6277,11 +6277,11 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-1052528388341149696</t>
+          <t>t-740535202582253568</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C450" t="n">
         <v>0</v>
@@ -6290,11 +6290,11 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-1057165607152562176</t>
+          <t>t-740538191267106816</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C451" t="n">
         <v>1</v>
@@ -6303,7 +6303,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-1060529365962948608</t>
+          <t>t-741179165198536704</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -6316,24 +6316,24 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-545381752093806593</t>
+          <t>t-950088164777123841</t>
         </is>
       </c>
       <c r="B453" t="n">
         <v>1</v>
       </c>
       <c r="C453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-722777139469283328</t>
+          <t>t-950818741209747456</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C454" t="n">
         <v>0</v>
@@ -6342,20 +6342,20 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-740095983602782208</t>
+          <t>t-951169520584024064</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-800633887386988544</t>
+          <t>t-951600654866317313</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -6368,24 +6368,24 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-571286359673053184</t>
+          <t>t-951687956045156352</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-571344417145135105</t>
+          <t>t-965524750264135680</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C458" t="n">
         <v>1</v>
@@ -6394,7 +6394,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-629936150220685312</t>
+          <t>t-966320851678318593</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -6407,7 +6407,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-712150675111727105</t>
+          <t>t-967380419707535360</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -6420,11 +6420,11 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-828957006832795648</t>
+          <t>t-974595772317659137</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C461" t="n">
         <v>1</v>
@@ -6433,7 +6433,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-972395558735368192</t>
+          <t>t-993438566914101248</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -6446,20 +6446,20 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-564785591561506817</t>
+          <t>t-542716499115642881</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-1048216558785449986</t>
+          <t>t-649269312625209344</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -6472,63 +6472,63 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-570985250324656128</t>
+          <t>t-545381752093806593</t>
         </is>
       </c>
       <c r="B465" t="n">
         <v>1</v>
       </c>
       <c r="C465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-571078007407775744</t>
+          <t>t-652506002957422592</t>
         </is>
       </c>
       <c r="B466" t="n">
         <v>1</v>
       </c>
       <c r="C466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-571808211742814209</t>
+          <t>t-764828802384007168</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-575707186204180480</t>
+          <t>t-1014607937048850434</t>
         </is>
       </c>
       <c r="B468" t="n">
         <v>0</v>
       </c>
       <c r="C468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-837336632667877376</t>
+          <t>t-552766016325840896</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C469" t="n">
         <v>1</v>
@@ -6537,20 +6537,20 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-660085012306395136</t>
+          <t>t-560682074529484800</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-760176410539528192</t>
+          <t>t-818362228881719296</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -6563,37 +6563,37 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-742289179535659008</t>
+          <t>t-818369931054030848</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-743359058392940544</t>
+          <t>t-818390305326137344</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-817303376253882368</t>
+          <t>t-818474161949601796</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C474" t="n">
         <v>1</v>
@@ -6602,7 +6602,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-743692015158726656</t>
+          <t>t-818513625468010496</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -6615,7 +6615,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-743726128003588096</t>
+          <t>t-818701658280628224</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -6628,63 +6628,63 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-690751741676142592</t>
+          <t>t-818709014498443264</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-895521975434530816</t>
+          <t>t-819113813505146880</t>
         </is>
       </c>
       <c r="B478" t="n">
         <v>1</v>
       </c>
       <c r="C478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-895525136580923394</t>
+          <t>t-820214611416928256</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-717265029461049349</t>
+          <t>t-828957006832795648</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-624613462476337152</t>
+          <t>t-832880826807418880</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C481" t="n">
         <v>1</v>
@@ -6693,7 +6693,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-624628271745998852</t>
+          <t>t-917052938425716736</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -6706,20 +6706,20 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-948800001890713600</t>
+          <t>t-917054284579078144</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-1050165943790460929</t>
+          <t>t-917061971631108097</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -6732,7 +6732,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-955871714914766849</t>
+          <t>t-917080429227778048</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -6745,33 +6745,33 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-608689054549471232</t>
+          <t>t-917105709682216960</t>
         </is>
       </c>
       <c r="B486" t="n">
         <v>1</v>
       </c>
       <c r="C486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-610036486059200513</t>
+          <t>t-996477889779511296</t>
         </is>
       </c>
       <c r="B487" t="n">
         <v>0</v>
       </c>
       <c r="C487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-613277694457856004</t>
+          <t>t-801715561692626944</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -6784,11 +6784,11 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-753246884345487361</t>
+          <t>t-801720307002339328</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C489" t="n">
         <v>1</v>
@@ -6797,20 +6797,20 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-880840050245849088</t>
+          <t>t-575707186204180480</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-1008938317684060160</t>
+          <t>t-888068991020929025</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -6823,46 +6823,46 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-1008975928465248256</t>
+          <t>t-577532478912663552</t>
         </is>
       </c>
       <c r="B492" t="n">
         <v>1</v>
       </c>
       <c r="C492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-1008978373484400640</t>
+          <t>t-720181387190530048</t>
         </is>
       </c>
       <c r="B493" t="n">
         <v>0</v>
       </c>
       <c r="C493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-1008995195113918464</t>
+          <t>t-865160167155003392</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-1009346793090506752</t>
+          <t>t-764514429736132609</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -6875,20 +6875,20 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-1009539540728639490</t>
+          <t>t-764618483195838464</t>
         </is>
       </c>
       <c r="B496" t="n">
         <v>1</v>
       </c>
       <c r="C496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-1010058406223400966</t>
+          <t>t-581115572282376192</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -6901,11 +6901,11 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-1011026406564823042</t>
+          <t>t-940281474259062789</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C498" t="n">
         <v>1</v>
@@ -6914,20 +6914,20 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-997420355043102720</t>
+          <t>t-962759977394991104</t>
         </is>
       </c>
       <c r="B499" t="n">
         <v>1</v>
       </c>
       <c r="C499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-619208680349765633</t>
+          <t>t-587481090845179905</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -6940,24 +6940,24 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-631869539597336576</t>
+          <t>t-591228165827260416</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-632875946828255232</t>
+          <t>t-743692015158726656</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C502" t="n">
         <v>1</v>
@@ -6966,7 +6966,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-740216200379158528</t>
+          <t>t-743726128003588096</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -6979,20 +6979,20 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-740233298862080000</t>
+          <t>t-592904512131768321</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-740234615814819840</t>
+          <t>t-595251975568109568</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -7005,7 +7005,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-740250007081766912</t>
+          <t>t-740222976763830272</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -7018,7 +7018,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-740302081416962049</t>
+          <t>t-740225059193819140</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -7031,7 +7031,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-633703854580830208</t>
+          <t>t-740231562940297216</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -7044,20 +7044,20 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-1008697922366689285</t>
+          <t>t-740233568627068929</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-1006630570447777793</t>
+          <t>t-740511241383387136</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -7070,33 +7070,33 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-801672831046221825</t>
+          <t>t-895521975434530816</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-801706221803806720</t>
+          <t>t-895525136580923394</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-660041764225589248</t>
+          <t>t-942758921533624320</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -7109,37 +7109,37 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-859792354395533312</t>
+          <t>t-717265029461049349</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-860626885302202369</t>
+          <t>t-955539710214057984</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-861365904025714688</t>
+          <t>t-955816204769390593</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C516" t="n">
         <v>1</v>
@@ -7148,20 +7148,20 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-861657024731467783</t>
+          <t>t-1024752032350195712</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-861897864632578048</t>
+          <t>t-955871714914766849</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -7174,24 +7174,24 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-862094425949917185</t>
+          <t>t-968152808062160896</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-862663540179701760</t>
+          <t>t-940349476509814789</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C520" t="n">
         <v>1</v>
@@ -7200,59 +7200,59 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-1004612435792232448</t>
+          <t>t-608689054549471232</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-676501548063657984</t>
+          <t>t-608880570362437632</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-692403922451992576</t>
+          <t>t-610036486059200513</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-948994988666425345</t>
+          <t>t-916986223478140928</t>
         </is>
       </c>
       <c r="B524" t="n">
         <v>1</v>
       </c>
       <c r="C524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-949010413437497347</t>
+          <t>t-994824289349242881</t>
         </is>
       </c>
       <c r="B525" t="n">
@@ -7265,7 +7265,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-949151246799142913</t>
+          <t>t-994897053523341314</t>
         </is>
       </c>
       <c r="B526" t="n">
@@ -7278,7 +7278,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-950677684811640833</t>
+          <t>t-995019257841889281</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -7291,7 +7291,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-703191098403872769</t>
+          <t>t-995256568429064192</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -7304,33 +7304,33 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-703191473269780480</t>
+          <t>t-1021061872274018305</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-703218090671214592</t>
+          <t>t-615666964451606528</t>
         </is>
       </c>
       <c r="B530" t="n">
         <v>1</v>
       </c>
       <c r="C530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-703248568765779969</t>
+          <t>t-615728570888003584</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -7343,7 +7343,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-703357904250757120</t>
+          <t>t-760350969154723840</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -7356,37 +7356,37 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-703380366254612480</t>
+          <t>t-623896530324467712</t>
         </is>
       </c>
       <c r="B533" t="n">
         <v>1</v>
       </c>
       <c r="C533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-703605156500381696</t>
+          <t>t-641169109116293120</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-1062323949680373760</t>
+          <t>t-1013800752567996416</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C535" t="n">
         <v>0</v>
@@ -7395,7 +7395,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-949613613874077704</t>
+          <t>t-925429606693457921</t>
         </is>
       </c>
       <c r="B536" t="n">
@@ -7408,33 +7408,33 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-737663862317682689</t>
+          <t>t-974126323248586752</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-737736248970911744</t>
+          <t>t-1004612435792232448</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-737669645872795648</t>
+          <t>t-671784280259866624</t>
         </is>
       </c>
       <c r="B539" t="n">
@@ -7447,11 +7447,11 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-743471999876472833</t>
+          <t>t-681422251338674177</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C540" t="n">
         <v>1</v>
@@ -7460,11 +7460,11 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-1003603539539742720</t>
+          <t>t-692403922451992576</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C541" t="n">
         <v>0</v>
@@ -7473,37 +7473,37 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-884308996835991554</t>
+          <t>t-701060752074010624</t>
         </is>
       </c>
       <c r="B542" t="n">
         <v>1</v>
       </c>
       <c r="C542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-956210090935312384</t>
+          <t>t-953202460994232320</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-956914853922459649</t>
+          <t>t-953212881809518592</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C544" t="n">
         <v>0</v>
@@ -7512,33 +7512,33 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-957307123943256064</t>
+          <t>t-884308996835991554</t>
         </is>
       </c>
       <c r="B545" t="n">
         <v>1</v>
       </c>
       <c r="C545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-958391208602193920</t>
+          <t>t-745170424456052736</t>
         </is>
       </c>
       <c r="B546" t="n">
         <v>1</v>
       </c>
       <c r="C546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-1006391548668514309</t>
+          <t>t-897405884489506816</t>
         </is>
       </c>
       <c r="B547" t="n">
@@ -7551,11 +7551,11 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-1006459221448318981</t>
+          <t>t-824202245172592640</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C548" t="n">
         <v>1</v>
@@ -7564,37 +7564,37 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-738250548865032192</t>
+          <t>t-746386418465914880</t>
         </is>
       </c>
       <c r="B549" t="n">
         <v>1</v>
       </c>
       <c r="C549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-738751926372827136</t>
+          <t>t-753159226390962176</t>
         </is>
       </c>
       <c r="B550" t="n">
         <v>1</v>
       </c>
       <c r="C550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-738762935133188098</t>
+          <t>t-952704809529851906</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C551" t="n">
         <v>0</v>
@@ -7603,11 +7603,11 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-811198180654272512</t>
+          <t>t-1041726034662633472</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C552" t="n">
         <v>1</v>
@@ -7616,20 +7616,20 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-897405884489506816</t>
+          <t>t-760154379307458560</t>
         </is>
       </c>
       <c r="B553" t="n">
         <v>1</v>
       </c>
       <c r="C553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-906057103172923392</t>
+          <t>t-775906484295204864</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -7642,11 +7642,11 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-748138953241464832</t>
+          <t>t-836581914320506880</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C555" t="n">
         <v>1</v>
@@ -7655,7 +7655,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-755694559401762816</t>
+          <t>t-844564313012670464</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -7668,24 +7668,24 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-760176866099601408</t>
+          <t>t-990385513898094592</t>
         </is>
       </c>
       <c r="B557" t="n">
         <v>1</v>
       </c>
       <c r="C557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-792319235351535616</t>
+          <t>t-991723021709832193</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C558" t="n">
         <v>0</v>
@@ -7694,7 +7694,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-834984907881525249</t>
+          <t>t-861335479475634176</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -7707,33 +7707,33 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-862454112507580416</t>
+          <t>t-867414851802599424</t>
         </is>
       </c>
       <c r="B560" t="n">
         <v>1</v>
       </c>
       <c r="C560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-1002130830792241153</t>
+          <t>t-946052034461040640</t>
         </is>
       </c>
       <c r="B561" t="n">
         <v>0</v>
       </c>
       <c r="C561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-890626982773481473</t>
+          <t>t-906119454941171712</t>
         </is>
       </c>
       <c r="B562" t="n">
@@ -7746,33 +7746,33 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-940225923332403204</t>
+          <t>t-913806353851969537</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-940273268677849088</t>
+          <t>t-949166298210082816</t>
         </is>
       </c>
       <c r="B564" t="n">
         <v>0</v>
       </c>
       <c r="C564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-949248780280516608</t>
+          <t>t-958848005502681088</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -7785,7 +7785,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-981841496902197248</t>
+          <t>t-959068004729475072</t>
         </is>
       </c>
       <c r="B566" t="n">
@@ -7798,7 +7798,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-1004723222363955200</t>
+          <t>t-981841496902197248</t>
         </is>
       </c>
       <c r="B567" t="n">
@@ -7811,37 +7811,37 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-1006233702052057088</t>
+          <t>t-1003736255149027328</t>
         </is>
       </c>
       <c r="B568" t="n">
         <v>1</v>
       </c>
       <c r="C568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-579789832131575808</t>
+          <t>t-1028077071480832000</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-580874616324943872</t>
+          <t>t-1030184521969410055</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C570" t="n">
         <v>0</v>
@@ -7850,7 +7850,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-627052129107087360</t>
+          <t>t-494327833263874048</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -7863,20 +7863,20 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-627062516095455232</t>
+          <t>t-950875222734929921</t>
         </is>
       </c>
       <c r="B572" t="n">
         <v>1</v>
       </c>
       <c r="C572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-627070573118488576</t>
+          <t>t-950925554487738369</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -7889,11 +7889,11 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-627075912631083008</t>
+          <t>t-675498810152325120</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C574" t="n">
         <v>1</v>
@@ -7902,7 +7902,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-627076573653561344</t>
+          <t>t-678069780989870080</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -7915,7 +7915,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-629559315221737472</t>
+          <t>t-549142719973445632</t>
         </is>
       </c>
       <c r="B576" t="n">
@@ -7928,46 +7928,46 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-643644357350948864</t>
+          <t>t-549750044099088384</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-648493309824925696</t>
+          <t>t-549858427787153410</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-683238954309566464</t>
+          <t>t-549861279825817601</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-683901242314067968</t>
+          <t>t-550997963590610944</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -7980,20 +7980,20 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-719019371499130881</t>
+          <t>t-551059868657152002</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-736860584470159360</t>
+          <t>t-551164779646038017</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -8006,11 +8006,11 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-788186519307563010</t>
+          <t>t-552328482282553344</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C583" t="n">
         <v>1</v>
@@ -8019,7 +8019,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-835120033412038656</t>
+          <t>t-552381413899898881</t>
         </is>
       </c>
       <c r="B584" t="n">
@@ -8032,20 +8032,20 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-852554541803417600</t>
+          <t>t-552754433155928064</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-854250685419986949</t>
+          <t>t-552860760968138752</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -8058,7 +8058,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-854262837673246720</t>
+          <t>t-552960294360977408</t>
         </is>
       </c>
       <c r="B587" t="n">
@@ -8071,7 +8071,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-921445800072298496</t>
+          <t>t-553046169975148544</t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -8084,37 +8084,37 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-922085813818658816</t>
+          <t>t-553111267569713154</t>
         </is>
       </c>
       <c r="B589" t="n">
         <v>0</v>
       </c>
       <c r="C589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-925890248541794304</t>
+          <t>t-553535305601392640</t>
         </is>
       </c>
       <c r="B590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-930305225726054400</t>
+          <t>t-579789832131575808</t>
         </is>
       </c>
       <c r="B591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C591" t="n">
         <v>1</v>
@@ -8123,20 +8123,20 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-947798399184785408</t>
+          <t>t-580874616324943872</t>
         </is>
       </c>
       <c r="B592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-947806740518641664</t>
+          <t>t-676377478168862721</t>
         </is>
       </c>
       <c r="B593" t="n">
@@ -8149,7 +8149,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-947808691230822401</t>
+          <t>t-677293991713308673</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -8162,11 +8162,11 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-947833275673747457</t>
+          <t>t-678077110070566912</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C595" t="n">
         <v>1</v>
@@ -8175,24 +8175,24 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-948185680043155456</t>
+          <t>t-719019371499130881</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-948407157803728896</t>
+          <t>t-798050241861840896</t>
         </is>
       </c>
       <c r="B597" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C597" t="n">
         <v>1</v>
@@ -8201,7 +8201,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-948721205443358720</t>
+          <t>t-798099061475684352</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -8214,115 +8214,115 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-948800260238815232</t>
+          <t>t-879622376966635521</t>
         </is>
       </c>
       <c r="B599" t="n">
         <v>1</v>
       </c>
       <c r="C599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-948884291743870976</t>
+          <t>t-879625739317854209</t>
         </is>
       </c>
       <c r="B600" t="n">
         <v>1</v>
       </c>
       <c r="C600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-1031392016255647744</t>
+          <t>t-879987948296568834</t>
         </is>
       </c>
       <c r="B601" t="n">
         <v>0</v>
       </c>
       <c r="C601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-511340405753786369</t>
+          <t>t-918517038053814277</t>
         </is>
       </c>
       <c r="B602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-675258412049956865</t>
+          <t>t-921445800072298496</t>
         </is>
       </c>
       <c r="B603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-706517570451427328</t>
+          <t>t-922085813818658816</t>
         </is>
       </c>
       <c r="B604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-727016962102980608</t>
+          <t>t-925890248541794304</t>
         </is>
       </c>
       <c r="B605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-727141031607595008</t>
+          <t>t-650617914194694144</t>
         </is>
       </c>
       <c r="B606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-728392912636149760</t>
+          <t>t-718742884065759233</t>
         </is>
       </c>
       <c r="B607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C607" t="n">
         <v>1</v>
@@ -8331,11 +8331,11 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-762938358486052865</t>
+          <t>t-732742567545077761</t>
         </is>
       </c>
       <c r="B608" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C608" t="n">
         <v>1</v>
@@ -8344,7 +8344,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-838217823608438784</t>
+          <t>t-732880819631460356</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -8357,7 +8357,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-857957864354086912</t>
+          <t>t-732926405818753025</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -8370,24 +8370,24 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-857974981891719168</t>
+          <t>t-733131015837745153</t>
         </is>
       </c>
       <c r="B611" t="n">
         <v>1</v>
       </c>
       <c r="C611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-864437375618830336</t>
+          <t>t-733131209660735493</t>
         </is>
       </c>
       <c r="B612" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C612" t="n">
         <v>1</v>
@@ -8396,33 +8396,33 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-871870603011043328</t>
+          <t>t-733188233803128832</t>
         </is>
       </c>
       <c r="B613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-872126007855038464</t>
+          <t>t-733201290151514113</t>
         </is>
       </c>
       <c r="B614" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C614" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-922122902136172545</t>
+          <t>t-820295860747542529</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -8435,7 +8435,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-985916719981060097</t>
+          <t>t-820993538456289280</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -8448,20 +8448,20 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-985984041508720641</t>
+          <t>t-832449416082579456</t>
         </is>
       </c>
       <c r="B617" t="n">
         <v>0</v>
       </c>
       <c r="C617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-519137345065320448</t>
+          <t>t-857957864354086912</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -8474,24 +8474,24 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-573022010348982272</t>
+          <t>t-857974981891719168</t>
         </is>
       </c>
       <c r="B619" t="n">
         <v>1</v>
       </c>
       <c r="C619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-580217985706528769</t>
+          <t>t-985916719981060097</t>
         </is>
       </c>
       <c r="B620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C620" t="n">
         <v>1</v>
@@ -8500,11 +8500,11 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-581777426016956417</t>
+          <t>t-985984041508720641</t>
         </is>
       </c>
       <c r="B621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C621" t="n">
         <v>1</v>
@@ -8513,63 +8513,63 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-671487099355426816</t>
+          <t>t-503088287381082112</t>
         </is>
       </c>
       <c r="B622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-671928198360391680</t>
+          <t>t-546829406539243520</t>
         </is>
       </c>
       <c r="B623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-672328618379362304</t>
+          <t>t-546846288554500096</t>
         </is>
       </c>
       <c r="B624" t="n">
         <v>1</v>
       </c>
       <c r="C624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-673050773710839808</t>
+          <t>t-547603292180578305</t>
         </is>
       </c>
       <c r="B625" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C625" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-675871788564283392</t>
+          <t>t-547621920103862272</t>
         </is>
       </c>
       <c r="B626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C626" t="n">
         <v>1</v>
@@ -8578,7 +8578,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-685773216275533824</t>
+          <t>t-547636294059184128</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -8591,7 +8591,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-727080149770866688</t>
+          <t>t-547637054578769920</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -8604,33 +8604,33 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-736424760335179778</t>
+          <t>t-574404715376603136</t>
         </is>
       </c>
       <c r="B629" t="n">
         <v>0</v>
       </c>
       <c r="C629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-740813200766214144</t>
+          <t>t-583500409458688000</t>
         </is>
       </c>
       <c r="B630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-839825336552468480</t>
+          <t>t-583500450495795200</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -8643,7 +8643,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-863988808966053888</t>
+          <t>t-583501741481594881</t>
         </is>
       </c>
       <c r="B632" t="n">
@@ -8656,7 +8656,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-868766918035079168</t>
+          <t>t-583504251168497664</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -8669,20 +8669,20 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-1024894521568448513</t>
+          <t>t-583504875067056129</t>
         </is>
       </c>
       <c r="B634" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C634" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-1036192189947281408</t>
+          <t>t-584246834618474497</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -8695,7 +8695,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-1061598368164528128</t>
+          <t>t-585340196557692928</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -8708,7 +8708,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-1061625768696930304</t>
+          <t>t-662632429539057666</t>
         </is>
       </c>
       <c r="B637" t="n">
@@ -8721,7 +8721,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-1061782167494320130</t>
+          <t>t-662681193154920448</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,33 +8734,33 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-1062219458046058496</t>
+          <t>t-663567974029131776</t>
         </is>
       </c>
       <c r="B639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-548367743385624577</t>
+          <t>t-675871788564283392</t>
         </is>
       </c>
       <c r="B640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-578162074741661696</t>
+          <t>t-708275780988473345</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -8773,7 +8773,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-756176490119647232</t>
+          <t>t-709001129091174403</t>
         </is>
       </c>
       <c r="B642" t="n">
@@ -8786,7 +8786,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-964120690952564737</t>
+          <t>t-709281433978687488</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -8799,7 +8799,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-592295516517502976</t>
+          <t>t-733931111152123906</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -8812,7 +8812,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-661588229892673536</t>
+          <t>t-734714075603718144</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -8825,7 +8825,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-678547534269177856</t>
+          <t>t-734767651981905921</t>
         </is>
       </c>
       <c r="B646" t="n">
@@ -8838,7 +8838,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-768634144851013633</t>
+          <t>t-735043937040093185</t>
         </is>
       </c>
       <c r="B647" t="n">
@@ -8851,20 +8851,20 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-769506262551715840</t>
+          <t>t-756020759726727169</t>
         </is>
       </c>
       <c r="B648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-989542585978052610</t>
+          <t>t-789409624138985476</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -8877,7 +8877,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-521700184376770560</t>
+          <t>t-789409631646785537</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -8890,7 +8890,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-523431319012139009</t>
+          <t>t-838333127739260928</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -8903,7 +8903,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-551339874838908928</t>
+          <t>t-838721199874048000</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -8916,46 +8916,46 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-525880451999617025</t>
+          <t>t-845583720950128640</t>
         </is>
       </c>
       <c r="B653" t="n">
         <v>0</v>
       </c>
       <c r="C653" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-791933405902442497</t>
+          <t>t-870517868831449088</t>
         </is>
       </c>
       <c r="B654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-555323393890058240</t>
+          <t>t-922601399271112704</t>
         </is>
       </c>
       <c r="B655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-555327376440053760</t>
+          <t>t-563978477183840256</t>
         </is>
       </c>
       <c r="B656" t="n">
@@ -8968,20 +8968,20 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-565428032685740033</t>
+          <t>t-578162074741661696</t>
         </is>
       </c>
       <c r="B657" t="n">
         <v>1</v>
       </c>
       <c r="C657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-744191847128436736</t>
+          <t>t-706405441522143232</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -8994,20 +8994,20 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-825956164366172160</t>
+          <t>t-723687727468683264</t>
         </is>
       </c>
       <c r="B659" t="n">
         <v>1</v>
       </c>
       <c r="C659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-825956302023163905</t>
+          <t>t-723764446498152448</t>
         </is>
       </c>
       <c r="B660" t="n">
@@ -9020,20 +9020,20 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-825967811814125568</t>
+          <t>t-783478326421704704</t>
         </is>
       </c>
       <c r="B661" t="n">
         <v>1</v>
       </c>
       <c r="C661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-825983840988467200</t>
+          <t>t-964120690952564737</t>
         </is>
       </c>
       <c r="B662" t="n">
@@ -9046,7 +9046,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-919610638351003649</t>
+          <t>t-535750936824528896</t>
         </is>
       </c>
       <c r="B663" t="n">
@@ -9059,7 +9059,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-919611818183503872</t>
+          <t>t-535750956848140288</t>
         </is>
       </c>
       <c r="B664" t="n">
@@ -9072,7 +9072,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-919614704967757825</t>
+          <t>t-535751324143341568</t>
         </is>
       </c>
       <c r="B665" t="n">
@@ -9085,7 +9085,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-919712337681985537</t>
+          <t>t-535754365856776193</t>
         </is>
       </c>
       <c r="B666" t="n">
@@ -9098,7 +9098,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-919728404907167744</t>
+          <t>t-535786478451048448</t>
         </is>
       </c>
       <c r="B667" t="n">
@@ -9111,7 +9111,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-919751765871886336</t>
+          <t>t-661588229892673536</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -9124,24 +9124,24 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-919766847666274304</t>
+          <t>t-676067082081976320</t>
         </is>
       </c>
       <c r="B669" t="n">
         <v>1</v>
       </c>
       <c r="C669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-919943414766063617</t>
+          <t>t-802829831633108992</t>
         </is>
       </c>
       <c r="B670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C670" t="n">
         <v>1</v>
@@ -9150,20 +9150,20 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-920179252292739072</t>
+          <t>t-929369497420685312</t>
         </is>
       </c>
       <c r="B671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-920416544319926272</t>
+          <t>t-521700184376770560</t>
         </is>
       </c>
       <c r="B672" t="n">
@@ -9176,11 +9176,11 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-694769781573050368</t>
+          <t>t-830684745323327488</t>
         </is>
       </c>
       <c r="B673" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C673" t="n">
         <v>1</v>
@@ -9189,20 +9189,20 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-699788036561743872</t>
+          <t>t-969977636670918656</t>
         </is>
       </c>
       <c r="B674" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C674" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-833843048253681665</t>
+          <t>t-558428892898131968</t>
         </is>
       </c>
       <c r="B675" t="n">
@@ -9215,7 +9215,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-834648744150892546</t>
+          <t>t-558596887519850496</t>
         </is>
       </c>
       <c r="B676" t="n">
@@ -9228,11 +9228,11 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-852718859765202945</t>
+          <t>t-674974370180239360</t>
         </is>
       </c>
       <c r="B677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C677" t="n">
         <v>1</v>
@@ -9241,20 +9241,20 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-852739972473868290</t>
+          <t>t-703773712068116482</t>
         </is>
       </c>
       <c r="B678" t="n">
         <v>1</v>
       </c>
       <c r="C678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-919103523458969600</t>
+          <t>t-703855663269556224</t>
         </is>
       </c>
       <c r="B679" t="n">
@@ -9267,11 +9267,11 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-961453081543065600</t>
+          <t>t-703940411761389571</t>
         </is>
       </c>
       <c r="B680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C680" t="n">
         <v>1</v>
@@ -9280,7 +9280,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-534644762553229312</t>
+          <t>t-922457591313137664</t>
         </is>
       </c>
       <c r="B681" t="n">
@@ -9293,37 +9293,37 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-535211715454332929</t>
+          <t>t-922793297873010689</t>
         </is>
       </c>
       <c r="B682" t="n">
         <v>1</v>
       </c>
       <c r="C682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-535234909267578880</t>
+          <t>t-544711019629907968</t>
         </is>
       </c>
       <c r="B683" t="n">
         <v>1</v>
       </c>
       <c r="C683" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-535323782999977985</t>
+          <t>t-544769671799394304</t>
         </is>
       </c>
       <c r="B684" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C684" t="n">
         <v>1</v>
@@ -9332,46 +9332,46 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-536050657384333312</t>
+          <t>t-544813894037147648</t>
         </is>
       </c>
       <c r="B685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-536689861890035712</t>
+          <t>t-545169541052243968</t>
         </is>
       </c>
       <c r="B686" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C686" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-798752071239409665</t>
+          <t>t-550823263941574657</t>
         </is>
       </c>
       <c r="B687" t="n">
         <v>1</v>
       </c>
       <c r="C687" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-803451448700780544</t>
+          <t>t-935391382331588609</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -9384,7 +9384,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-803454039333556224</t>
+          <t>t-935397608851324931</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -9397,11 +9397,11 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-803455995494027264</t>
+          <t>t-935407791757389824</t>
         </is>
       </c>
       <c r="B690" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C690" t="n">
         <v>1</v>
@@ -9410,20 +9410,20 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-803466221962215424</t>
+          <t>t-709944298301628416</t>
         </is>
       </c>
       <c r="B691" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-803470959600467968</t>
+          <t>t-723151439586013184</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,24 +9436,24 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-779194196724887553</t>
+          <t>t-859771332908777474</t>
         </is>
       </c>
       <c r="B693" t="n">
         <v>0</v>
       </c>
       <c r="C693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-787902147698450432</t>
+          <t>t-930711486019854336</t>
         </is>
       </c>
       <c r="B694" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C694" t="n">
         <v>1</v>
@@ -9462,11 +9462,11 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-787981561949921280</t>
+          <t>t-931775243361779712</t>
         </is>
       </c>
       <c r="B695" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C695" t="n">
         <v>1</v>
@@ -9475,7 +9475,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-801652200724451332</t>
+          <t>t-964122358905823232</t>
         </is>
       </c>
       <c r="B696" t="n">
@@ -9488,11 +9488,11 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-919895715089932288</t>
+          <t>t-987943018454962177</t>
         </is>
       </c>
       <c r="B697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C697" t="n">
         <v>1</v>
@@ -9501,7 +9501,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-1060932314279170048</t>
+          <t>t-544801968703557632</t>
         </is>
       </c>
       <c r="B698" t="n">
@@ -9514,7 +9514,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-544801968703557632</t>
+          <t>t-666482399069343745</t>
         </is>
       </c>
       <c r="B699" t="n">
@@ -9527,11 +9527,11 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-734985227739619329</t>
+          <t>t-820399938416754688</t>
         </is>
       </c>
       <c r="B700" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C700" t="n">
         <v>1</v>
@@ -9540,7 +9540,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-930542567199997958</t>
+          <t>t-823731915236708352</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -9553,11 +9553,11 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-796490215078711296</t>
+          <t>t-547937617547771905</t>
         </is>
       </c>
       <c r="B702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C702" t="n">
         <v>1</v>
@@ -9566,7 +9566,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-550867696435200000</t>
+          <t>t-966644863226732544</t>
         </is>
       </c>
       <c r="B703" t="n">
@@ -9579,7 +9579,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-550870336418234368</t>
+          <t>t-966649635170238465</t>
         </is>
       </c>
       <c r="B704" t="n">
@@ -9592,20 +9592,20 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-550963305326862336</t>
+          <t>t-801684041787273216</t>
         </is>
       </c>
       <c r="B705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-551099005388599297</t>
+          <t>t-555130566706622465</t>
         </is>
       </c>
       <c r="B706" t="n">
@@ -9618,11 +9618,11 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-551184362054500352</t>
+          <t>t-808956641743732736</t>
         </is>
       </c>
       <c r="B707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C707" t="n">
         <v>1</v>
@@ -9631,7 +9631,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-1037871134488707072</t>
+          <t>t-809733108471889920</t>
         </is>
       </c>
       <c r="B708" t="n">
@@ -9644,7 +9644,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-1037879643695529985</t>
+          <t>t-946271534502395905</t>
         </is>
       </c>
       <c r="B709" t="n">
@@ -9657,24 +9657,24 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-1037893136482103296</t>
+          <t>t-962542177514500096</t>
         </is>
       </c>
       <c r="B710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-1037997508973060096</t>
+          <t>t-954254379967660032</t>
         </is>
       </c>
       <c r="B711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C711" t="n">
         <v>1</v>
@@ -9683,7 +9683,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-935764445632061440</t>
+          <t>t-701328466483027968</t>
         </is>
       </c>
       <c r="B712" t="n">
@@ -9696,7 +9696,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-940363500475465728</t>
+          <t>t-757432883531304960</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -9709,11 +9709,11 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-561946682707812352</t>
+          <t>t-775600763481436160</t>
         </is>
       </c>
       <c r="B714" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C714" t="n">
         <v>1</v>
@@ -9722,20 +9722,20 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-1016952321333497856</t>
+          <t>t-805321168580395008</t>
         </is>
       </c>
       <c r="B715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-701328466483027968</t>
+          <t>t-870645957704265729</t>
         </is>
       </c>
       <c r="B716" t="n">
@@ -9748,11 +9748,11 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-638407777333850112</t>
+          <t>t-870651401311014912</t>
         </is>
       </c>
       <c r="B717" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C717" t="n">
         <v>1</v>
@@ -9761,20 +9761,20 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-754793839844397056</t>
+          <t>t-932461262268661760</t>
         </is>
       </c>
       <c r="B718" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C718" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-761430337377349632</t>
+          <t>t-932590015711993858</t>
         </is>
       </c>
       <c r="B719" t="n">
@@ -9787,11 +9787,11 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-1004628011856089090</t>
+          <t>t-932596112241786880</t>
         </is>
       </c>
       <c r="B720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C720" t="n">
         <v>1</v>
@@ -9800,7 +9800,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-677428252881784832</t>
+          <t>t-932690981908074496</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -9813,7 +9813,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-777104599379423233</t>
+          <t>t-932881287005835264</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -9826,7 +9826,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-777106884058763264</t>
+          <t>t-579242361768677376</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -9839,7 +9839,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-802066289527095297</t>
+          <t>t-777104599379423233</t>
         </is>
       </c>
       <c r="B724" t="n">
@@ -9852,7 +9852,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-802114052063252481</t>
+          <t>t-777106884058763264</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -9865,7 +9865,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-829258775257346048</t>
+          <t>t-568062001399746560</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -9878,7 +9878,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-829280839464845312</t>
+          <t>t-935417453286326277</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -9891,7 +9891,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-829291437292396544</t>
+          <t>t-610619808913076224</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-829294998201970688</t>
+          <t>t-639809419102937088</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,7 +9917,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-829512724761620480</t>
+          <t>t-691264325659422721</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,7 +9930,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-733197295139741697</t>
+          <t>t-691280497184362497</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -9943,7 +9943,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>t-760724447745699841</t>
+          <t>t-964014223184375808</t>
         </is>
       </c>
       <c r="B732" t="n">
@@ -9956,7 +9956,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>t-833891988315336704</t>
+          <t>t-798490523820380160</t>
         </is>
       </c>
       <c r="B733" t="n">
